--- a/docs/ST3/ST3_08.08.24_output.xlsx
+++ b/docs/ST3/ST3_08.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731674908.9754007</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731674909.3871007</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674908.9754007.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674909.3871007.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.14</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.61</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.4700000000000273</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731674911.1682763</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731674912.6267755</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674911.1682763.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674912.6267755.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>284.49</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>284.48</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.009999999999990905</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731674913.786373</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731674914.7949147</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674913.786373.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674914.7949147.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>284.9</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>284.34</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.5600000000000023</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731674917.079826</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731674917.4067247</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674917.079826.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674917.4067247.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>283.35</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>282.67</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6800000000000068</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731674918.0058932</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731674918.4011378</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674918.0058932.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674918.4011378.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>283.05</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>283.35</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.3000000000000114</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731674921.4938672</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731674921.6836474</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674921.4938672.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674921.6836474.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>283.67</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>283.11</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731674922.0544353</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731674922.9756467</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674922.0544353.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674922.9756467.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>130.28</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>130.17</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.1100000000000136</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731674928.7279072</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731674929.328951</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674928.7279072.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674929.328951.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>130.34</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>130.06</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731674930.7115471</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731674931.2540736</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674930.7115471.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674931.2540736.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>129.74</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>129.06</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.6800000000000068</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731674931.6642375</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731674932.5012388</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674931.6642375.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674932.5012388.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>129.3</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>129.58</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731674945.7198381</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731674945.9843998</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674945.7198381.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674945.9843998.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6464</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6474.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-10.5</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -1111,95 +1193,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731674949.3774097</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731674949.3774097.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731674949.3774097.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6480</v>
       </c>
-      <c r="J14" t="n">
-        <v>6480</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>6462.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731674949.6048164</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731674950.0306122</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674949.6048164.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674950.0306122.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>508.75</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>508.2</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.5500000000000114</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731674951.860534</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731674952.6185899</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674951.860534.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674952.6185899.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>511.05</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>512.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.449999999999989</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731674954.240666</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731674955.3213344</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674954.240666.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674955.3213344.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>513</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>511.9</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-1.100000000000023</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731674962.8641822</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731674964.1939595</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674962.8641822.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674964.1939595.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>227.72</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>228.73</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.009999999999991</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731674964.6785128</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731674965.6585252</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674964.6785128.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674965.6585252.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>228.86</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>229.48</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.6199999999999761</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731674967.3884597</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731674968.527154</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674967.3884597.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674968.527154.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>229.63</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>229.34</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.289999999999992</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731674972.6399493</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731674973.2346804</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674972.6399493.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674973.2346804.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>228.37</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>228.6</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.2299999999999898</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731674978.335841</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731674978.7861342</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674978.335841.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674978.7861342.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1016.2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1021</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>4.799999999999955</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731674980.4017622</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731674984.1883051</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674980.4017622.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674984.1883051.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1027.2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1026</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-1.200000000000045</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731674986.980284</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731674989.1629732</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674986.980284.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674989.1629732.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1020</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1021.4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-1.399999999999977</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731674992.4454257</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731674994.531043</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674992.4454257.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674994.531043.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>11.884</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>11.941</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.05700000000000038</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731674994.545976</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731674995.8559546</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674994.545976.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674995.8559546.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>11.941</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>11.957</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.01600000000000001</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1779,101 +1939,113 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731675000.5549338</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731675012.1247783</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675000.5549338.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675012.1247783.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731675003.9204206</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731675004.5350559</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731675003.9204206.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731675004.5350559.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>11.952</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>11.943</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.009000000000000341</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1881,95 +2053,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731675005.9153616</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731675005.9153616.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731675005.9153616.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>11.963</v>
       </c>
-      <c r="J29" t="n">
-        <v>11.963</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>11.969</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.006000000000000227</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731675006.4318655</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731675007.0615659</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675006.4318655.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675007.0615659.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>124.96</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>124.9</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.05999999999998806</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1977,51 +2161,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731675008.6260273</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731675009.172439</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675008.6260273.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675009.172439.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>124.9</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>124.72</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.1800000000000068</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -2029,51 +2219,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731675011.3180223</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731675012.469016</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675011.3180223.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675012.469016.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>124.9</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>124.58</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.3200000000000074</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -2081,51 +2277,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731675012.4849463</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731675014.1466362</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675012.4849463.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675014.1466362.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>124.58</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>123.92</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.6599999999999966</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -2133,51 +2335,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731675014.2703967</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731675015.3174915</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675014.2703967.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675015.3174915.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>124.08</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>123.54</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.539999999999992</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -2185,51 +2393,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731675015.613415</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731675016.455876</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675015.613415.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675016.455876.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>123.66</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>123.82</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -2237,51 +2451,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731675022.237696</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731675023.7467425</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675022.237696.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675023.7467425.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>161.76</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>161.88</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2289,51 +2509,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731675025.8211129</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731675026.258417</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675025.8211129.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675026.258417.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>162.28</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>162.22</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2341,51 +2567,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731675029.0682847</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731675030.4920547</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675029.0682847.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675030.4920547.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>160.7</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>160.66</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.03999999999999204</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2393,51 +2625,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731675036.490136</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731675037.882219</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675036.490136.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675037.882219.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>49.62</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>49.675</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.05499999999999972</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2445,51 +2683,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731675040.0466847</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731675040.1751814</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675040.0466847.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675040.1751814.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>49.525</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>49.39</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.134999999999998</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2497,51 +2741,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731675040.543524</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731675042.0787125</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675040.543524.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675042.0787125.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>49.425</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>49.195</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.2299999999999969</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -2549,51 +2799,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731675043.1383772</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731675044.9764822</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675043.1383772.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675044.9764822.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>49.2</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>49.2</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2601,101 +2857,113 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731675050.099107</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731675051.8650858</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675050.099107.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675051.8650858.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731675050.6686845</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731675051.4300745</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675050.6686845.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675051.4300745.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1391.8</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1399.8</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>8</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -2703,51 +2971,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731675051.6869352</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731675052.0344946</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675051.6869352.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675052.0344946.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1397.6</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1403.4</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>5.800000000000182</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -2755,51 +3029,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731675052.5172098</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731675053.1411364</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675052.5172098.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675053.1411364.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1402</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1405</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>3</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -2807,51 +3087,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731675056.5226495</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731675057.1617272</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675056.5226495.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675057.1617272.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1388.8</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1385.2</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>3.599999999999909</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2859,51 +3145,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731675057.8957498</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731675059.1871712</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675057.8957498.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675059.1871712.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1386.4</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1390</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-3.599999999999909</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -2911,51 +3203,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731675062.1136467</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731675063.7146723</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675062.1136467.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675063.7146723.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>61.25</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>61.59</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -2963,51 +3261,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731675068.8713987</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731675070.0840378</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675068.8713987.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675070.0840378.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>61.15</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>60.88</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.269999999999996</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -3015,51 +3319,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731675076.7239594</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731675077.278576</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675076.7239594.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675077.278576.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>98.58</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>98.67</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.09000000000000341</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3067,51 +3377,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731675080.3782108</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731675081.8580346</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675080.3782108.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675081.8580346.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>98.67</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>98.37</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.2999999999999972</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -3119,51 +3435,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731675081.8739917</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731675082.5943108</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675081.8739917.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675082.5943108.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>98.37</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>98.26000000000001</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3171,51 +3493,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731675086.116817</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731675086.7321925</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675086.116817.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675086.7321925.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>97.75</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>97.5</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.25</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -3223,95 +3551,107 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731675091.7392323</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731675091.7392323.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731675091.7392323.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>97.81999999999999</v>
       </c>
-      <c r="J55" t="n">
-        <v>97.81999999999999</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>97.66</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731675091.9230075</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731675092.9039342</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675091.9230075.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675092.9039342.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>56.26</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>56.1</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -3319,51 +3659,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731675095.1141264</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731675096.0272827</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675095.1141264.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675096.0272827.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>56.03</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>55.96</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3371,51 +3717,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731675096.9598186</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731675097.9188569</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675096.9598186.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675097.9188569.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>55.94</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>55.75</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -3423,51 +3775,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731675098.5356936</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731675100.8006196</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675098.5356936.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675100.8006196.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>55.86</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>55.85</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3475,51 +3833,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731675104.2264938</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731675105.5295773</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675104.2264938.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675105.5295773.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>149.24</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>151.9</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>2.659999999999997</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>1.78</v>
       </c>
     </row>
@@ -3527,51 +3891,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731675106.8340604</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731675108.5137806</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675106.8340604.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675108.5137806.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>153.98</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>154.68</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.7000000000000171</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -3579,51 +3949,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731675115.2112825</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731675116.5679128</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675115.2112825.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675116.5679128.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>153.9</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>153.32</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.5800000000000125</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -3631,51 +4007,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731675116.7504816</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731675117.2160776</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675116.7504816.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675117.2160776.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>20.432</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>20.401</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.03099999999999881</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -3683,51 +4065,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731675121.4493504</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731675122.9224796</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675121.4493504.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675122.9224796.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>20.553</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>20.361</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.1920000000000002</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.9299999999999999</v>
       </c>
     </row>
@@ -3735,51 +4123,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731675123.191576</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731675123.7233808</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675123.191576.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675123.7233808.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>20.421</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>20.402</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.01899999999999835</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3787,51 +4181,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731675126.7104974</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731675129.447961</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675126.7104974.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675129.447961.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>20.281</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>20.358</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.07700000000000173</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -3839,51 +4239,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731675130.6842234</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731675131.4774806</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731675130.6842234.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731675131.4774806.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>677.65</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>677</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.6499999999999773</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -3891,51 +4297,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731675132.66817</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731675134.7701151</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731675132.66817.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731675134.7701151.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>679.15</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>679.75</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3943,51 +4355,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731675135.7329576</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731675136.2396467</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731675135.7329576.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731675136.2396467.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>680.35</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>680.25</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -3995,51 +4413,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731675139.5579362</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731675140.8070264</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731675139.5579362.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731675140.8070264.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>676.7</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>677.7</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-1</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -4047,51 +4471,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731675144.524331</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731675145.0953853</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675144.524331.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675145.0953853.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>156.13</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>156.37</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4099,51 +4529,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731675145.4901054</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731675147.0393753</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675145.4901054.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675147.0393753.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>155.69</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>156.49</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.8000000000000114</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -4151,51 +4587,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731675147.0553327</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731675149.0693548</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675147.0553327.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675149.0693548.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>156.49</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>157.5</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>1.009999999999991</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -4203,51 +4645,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731675151.2298436</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731675152.3135686</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675151.2298436.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675152.3135686.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>157.09</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>156.03</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>1.060000000000002</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -4255,51 +4703,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731675153.5791326</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731675154.1476877</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675153.5791326.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675154.1476877.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>155</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>154.23</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.7700000000000102</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4307,51 +4761,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731675154.993115</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731675155.3412268</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675154.993115.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675155.3412268.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>154.6</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>154.7</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -4359,51 +4819,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731675160.2543612</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731675160.5934656</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731675160.2543612.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731675160.5934656.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>0.09748000000000001</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>0.09768</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.0001999999999999919</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -4411,51 +4877,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731675160.609423</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731675161.9967167</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731675160.609423.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731675161.9967167.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0.09768</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.09792000000000001</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.0002400000000000041</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -4463,51 +4935,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731675163.5125108</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731675164.931735</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731675163.5125108.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731675164.931735.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>0.09820000000000001</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>0.09768</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.0005200000000000066</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-0.53</v>
       </c>
     </row>
@@ -4515,51 +4993,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731675167.3468678</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731675170.0887754</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731675167.3468678.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731675170.0887754.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>0.09730000000000001</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>0.09724000000000001</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>6.000000000000449e-05</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4567,51 +5051,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731675170.759563</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731675171.3776734</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675170.759563.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675171.3776734.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>2940.45</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>2939.7</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.75</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4619,51 +5109,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731675172.704442</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731675173.289597</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675172.704442.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675173.289597.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>2944.95</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>2942.35</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-2.599999999999909</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -4671,51 +5167,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731675175.3296416</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731675176.6441</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675175.3296416.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675176.6441.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>2949.7</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>2935.05</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-14.64999999999964</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -4723,44 +5225,50 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731675177.0210721</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731675177.0210721.png</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731675177.0210721.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>2935.75</v>
       </c>
-      <c r="J84" t="n">
-        <v>2935.75</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>2941.35</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-5.599999999999909</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -4887,19 +5395,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-17.99999999999955</v>
+        <v>-23.59999999999945</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.999999999999924</v>
+        <v>-3.933333333333243</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.62</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="6">
@@ -4931,19 +5439,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1500000000000057</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03000000000000114</v>
+        <v>0.06200000000000046</v>
       </c>
       <c r="E7" t="n">
-        <v>0.16</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -5107,19 +5615,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.05000000000000071</v>
+        <v>-0.04400000000000048</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01250000000000018</v>
+        <v>-0.01100000000000012</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.43</v>
+        <v>-0.38</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="16">
@@ -5239,19 +5747,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-10.5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.25</v>
+        <v>3.5</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="22">
